--- a/Projects/Max - CF Project/Monkey Metadata by Max.xlsx
+++ b/Projects/Max - CF Project/Monkey Metadata by Max.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="999">
   <si>
     <t>Filename</t>
   </si>
@@ -3013,6 +3013,18 @@
   </si>
   <si>
     <t>Step</t>
+  </si>
+  <si>
+    <t>OKR</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>VORD</t>
+  </si>
+  <si>
+    <t>x2</t>
   </si>
 </sst>
 </file>
@@ -3490,10 +3502,10 @@
         <v>622</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -3516,10 +3528,10 @@
         <v>622</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -3542,7 +3554,7 @@
         <v>622</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -3568,10 +3580,10 @@
         <v>622</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -3588,10 +3600,10 @@
         <v>622</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -3614,7 +3626,7 @@
         <v>622</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -3634,10 +3646,10 @@
         <v>622</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -3660,10 +3672,10 @@
         <v>622</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -3680,10 +3692,10 @@
         <v>622</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -3700,10 +3712,10 @@
         <v>622</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -3726,10 +3738,10 @@
         <v>622</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -3746,10 +3758,10 @@
         <v>622</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -3772,10 +3784,10 @@
         <v>622</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -3798,10 +3810,10 @@
         <v>622</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -3824,10 +3836,10 @@
         <v>622</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -3850,10 +3862,10 @@
         <v>622</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -3870,10 +3882,10 @@
         <v>622</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -3890,10 +3902,10 @@
         <v>622</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -3916,10 +3928,10 @@
         <v>622</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -3936,10 +3948,10 @@
         <v>622</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -3962,10 +3974,10 @@
         <v>622</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -3988,10 +4000,10 @@
         <v>622</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -4008,10 +4020,10 @@
         <v>622</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -4034,10 +4046,10 @@
         <v>622</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -4060,10 +4072,10 @@
         <v>622</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -4086,10 +4098,10 @@
         <v>622</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -4106,10 +4118,10 @@
         <v>622</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -4126,10 +4138,10 @@
         <v>622</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -4146,10 +4158,10 @@
         <v>622</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
@@ -4166,10 +4178,10 @@
         <v>622</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -4186,10 +4198,10 @@
         <v>622</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -4212,7 +4224,7 @@
         <v>622</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -4238,7 +4250,7 @@
         <v>622</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -4264,7 +4276,7 @@
         <v>622</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
@@ -4284,7 +4296,7 @@
         <v>622</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F37" t="s">
         <v>13</v>
@@ -4304,7 +4316,7 @@
         <v>622</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F38" t="s">
         <v>13</v>
@@ -4330,7 +4342,7 @@
         <v>622</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F39" t="s">
         <v>13</v>
@@ -4350,7 +4362,7 @@
         <v>622</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F40" t="s">
         <v>13</v>
@@ -4370,7 +4382,7 @@
         <v>622</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F41" t="s">
         <v>13</v>
@@ -4390,7 +4402,7 @@
         <v>622</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -4410,7 +4422,7 @@
         <v>622</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -4436,7 +4448,7 @@
         <v>622</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F44" t="s">
         <v>13</v>
@@ -4456,7 +4468,7 @@
         <v>622</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -4476,7 +4488,7 @@
         <v>622</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -4502,7 +4514,7 @@
         <v>622</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -4528,7 +4540,7 @@
         <v>622</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F48" t="s">
         <v>13</v>
@@ -4548,7 +4560,7 @@
         <v>622</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F49" t="s">
         <v>13</v>
@@ -4568,7 +4580,7 @@
         <v>622</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
@@ -4594,7 +4606,7 @@
         <v>622</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F51" t="s">
         <v>13</v>
@@ -4620,7 +4632,7 @@
         <v>622</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" t="s">
@@ -4647,10 +4659,10 @@
         <v>622</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
@@ -4667,10 +4679,10 @@
         <v>622</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
@@ -4693,10 +4705,10 @@
         <v>622</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
@@ -4719,10 +4731,10 @@
         <v>622</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
@@ -4745,10 +4757,10 @@
         <v>622</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
@@ -4771,7 +4783,7 @@
         <v>622</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
@@ -4791,7 +4803,7 @@
         <v>622</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
@@ -4811,7 +4823,7 @@
         <v>622</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
@@ -4831,7 +4843,7 @@
         <v>622</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
@@ -4857,7 +4869,7 @@
         <v>622</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
@@ -4883,7 +4895,7 @@
         <v>622</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
@@ -4909,7 +4921,7 @@
         <v>622</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
@@ -4935,7 +4947,7 @@
         <v>622</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
@@ -4961,7 +4973,7 @@
         <v>622</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
@@ -4987,7 +4999,7 @@
         <v>622</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F67" t="s">
         <v>13</v>
@@ -5013,7 +5025,7 @@
         <v>622</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
@@ -5039,7 +5051,7 @@
         <v>622</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
@@ -5065,7 +5077,7 @@
         <v>622</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
@@ -5091,7 +5103,7 @@
         <v>622</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
@@ -5117,7 +5129,7 @@
         <v>622</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -5143,10 +5155,10 @@
         <v>622</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
@@ -5163,7 +5175,7 @@
         <v>622</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F74" t="s">
         <v>13</v>
@@ -5203,10 +5215,10 @@
         <v>622</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G76" t="s">
         <v>13</v>
@@ -5229,10 +5241,10 @@
         <v>622</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G77" t="s">
         <v>13</v>
@@ -5255,10 +5267,10 @@
         <v>622</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G78" t="s">
         <v>13</v>
@@ -5281,10 +5293,10 @@
         <v>622</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G79" t="s">
         <v>13</v>
@@ -5301,7 +5313,7 @@
         <v>622</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F80" t="s">
         <v>13</v>
@@ -5321,10 +5333,10 @@
         <v>622</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G81" t="s">
         <v>13</v>
@@ -5341,10 +5353,10 @@
         <v>622</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G82" t="s">
         <v>13</v>
@@ -5361,10 +5373,10 @@
         <v>622</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G83" t="s">
         <v>13</v>
@@ -5387,10 +5399,10 @@
         <v>622</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G84" t="s">
         <v>13</v>
@@ -5413,10 +5425,10 @@
         <v>622</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G85" t="s">
         <v>13</v>
@@ -5439,10 +5451,10 @@
         <v>622</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G86" t="s">
         <v>13</v>
@@ -5465,10 +5477,10 @@
         <v>622</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G87" t="s">
         <v>13</v>
@@ -5491,10 +5503,10 @@
         <v>622</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G88" t="s">
         <v>13</v>
@@ -5511,7 +5523,7 @@
         <v>622</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -5537,10 +5549,10 @@
         <v>622</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G90" t="s">
         <v>13</v>
@@ -5563,10 +5575,10 @@
         <v>622</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G91" t="s">
         <v>13</v>
@@ -5589,10 +5601,10 @@
         <v>622</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G92" t="s">
         <v>13</v>
@@ -5615,10 +5627,10 @@
         <v>622</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G93" t="s">
         <v>13</v>
@@ -5635,10 +5647,10 @@
         <v>622</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G94" t="s">
         <v>13</v>
@@ -5655,7 +5667,7 @@
         <v>622</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -5681,7 +5693,7 @@
         <v>622</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" t="s">
@@ -5708,7 +5720,7 @@
         <v>622</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
@@ -5734,7 +5746,7 @@
         <v>622</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -5760,7 +5772,7 @@
         <v>622</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -5786,7 +5798,7 @@
         <v>622</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
@@ -5812,7 +5824,7 @@
         <v>622</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
@@ -5838,7 +5850,7 @@
         <v>622</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F102" t="s">
         <v>13</v>
@@ -5864,7 +5876,7 @@
         <v>622</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -5884,7 +5896,7 @@
         <v>622</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
@@ -5904,7 +5916,7 @@
         <v>622</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -5930,7 +5942,7 @@
         <v>622</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -5956,7 +5968,7 @@
         <v>622</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>994</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
@@ -5982,7 +5994,7 @@
         <v>622</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
@@ -6034,10 +6046,10 @@
         <v>622</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G110" t="s">
         <v>13</v>
@@ -6054,10 +6066,10 @@
         <v>622</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G111" t="s">
         <v>13</v>
@@ -6074,10 +6086,10 @@
         <v>622</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G112" t="s">
         <v>13</v>
@@ -6094,7 +6106,7 @@
         <v>622</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
@@ -6114,10 +6126,10 @@
         <v>622</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G114" t="s">
         <v>13</v>
@@ -6134,10 +6146,10 @@
         <v>622</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G115" t="s">
         <v>13</v>
@@ -6154,10 +6166,10 @@
         <v>622</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G116" t="s">
         <v>13</v>
@@ -6180,10 +6192,10 @@
         <v>622</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G117" t="s">
         <v>13</v>
@@ -6206,10 +6218,10 @@
         <v>622</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G118" t="s">
         <v>13</v>
@@ -6232,10 +6244,10 @@
         <v>622</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G119" t="s">
         <v>13</v>
@@ -6258,10 +6270,10 @@
         <v>622</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G120" t="s">
         <v>13</v>
@@ -6278,10 +6290,10 @@
         <v>622</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G121" t="s">
         <v>13</v>
@@ -6304,10 +6316,10 @@
         <v>622</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G122" t="s">
         <v>13</v>
@@ -6330,10 +6342,10 @@
         <v>622</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G123" t="s">
         <v>13</v>
@@ -6356,10 +6368,10 @@
         <v>622</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G124" t="s">
         <v>13</v>
@@ -6376,10 +6388,10 @@
         <v>622</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G125" t="s">
         <v>13</v>
@@ -6402,7 +6414,7 @@
         <v>622</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F126" t="s">
         <v>13</v>
@@ -6428,10 +6440,10 @@
         <v>622</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G127" t="s">
         <v>13</v>
@@ -6454,10 +6466,10 @@
         <v>622</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G128" t="s">
         <v>13</v>
@@ -6494,7 +6506,7 @@
         <v>622</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F130" t="s">
         <v>13</v>
@@ -6514,10 +6526,10 @@
         <v>622</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G131" t="s">
         <v>13</v>
@@ -6534,10 +6546,10 @@
         <v>623</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G132" t="s">
         <v>13</v>
@@ -6560,7 +6572,7 @@
         <v>624</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
@@ -6586,10 +6598,13 @@
         <v>0.5</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G134" t="s">
         <v>13</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
       </c>
       <c r="M134">
         <v>27.722090695296838</v>
@@ -6624,10 +6639,13 @@
         <v>0.5</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G135" t="s">
         <v>13</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
       </c>
       <c r="M135" s="4">
         <v>2.3767299318949758E-2</v>
@@ -6662,10 +6680,13 @@
         <v>0.5</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G136" t="s">
         <v>13</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
       </c>
       <c r="M136" s="4">
         <v>27.692271482676876</v>
@@ -6717,10 +6738,13 @@
         <v>0.5</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G138" t="s">
         <v>13</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
       </c>
       <c r="M138" s="4">
         <v>8.7583207546880324</v>
@@ -6755,10 +6779,13 @@
         <v>0.5</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G139" t="s">
         <v>13</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
       </c>
       <c r="M139" s="4">
         <v>1.206087653981704E-2</v>
@@ -6793,10 +6820,13 @@
         <v>0.5</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G140" t="s">
         <v>13</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
       </c>
       <c r="M140" s="4">
         <v>4.852084750348945E-2</v>
@@ -6831,10 +6861,13 @@
         <v>0.5</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G141" t="s">
         <v>13</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
       </c>
       <c r="M141" s="4">
         <v>1.2604542126731467E-2</v>
@@ -6869,10 +6902,13 @@
         <v>0.5</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G142" t="s">
         <v>13</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
       </c>
       <c r="M142" s="4">
         <v>27.694507072163542</v>
@@ -6907,10 +6943,13 @@
         <v>0.5</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G143" t="s">
         <v>13</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
       </c>
       <c r="M143" s="4">
         <v>8.6854462110882071</v>
@@ -6945,10 +6984,13 @@
         <v>0.5</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G144" t="s">
         <v>13</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
       </c>
       <c r="M144" s="4">
         <v>8.7572923589395462</v>
@@ -6983,10 +7025,13 @@
         <v>0.5</v>
       </c>
       <c r="F145" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G145" t="s">
         <v>13</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
       </c>
       <c r="M145">
         <v>8.7336192709427038</v>
@@ -7021,10 +7066,13 @@
         <v>0.5</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G146" t="s">
         <v>13</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
       </c>
       <c r="M146" s="4">
         <v>8.8442267423203722E-4</v>
@@ -7059,10 +7107,13 @@
         <v>0.5</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G147" t="s">
         <v>13</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
       </c>
       <c r="M147" s="4">
         <v>27.696153796063872</v>
@@ -7120,10 +7171,13 @@
         <v>0.5</v>
       </c>
       <c r="F149" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G149" t="s">
         <v>13</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
       </c>
       <c r="M149">
         <v>8.7339508964350792</v>
@@ -7158,10 +7212,13 @@
         <v>0.5</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G150" t="s">
         <v>13</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
       </c>
       <c r="M150">
         <v>8.7524618523684143</v>
@@ -7196,10 +7253,13 @@
         <v>0.5</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G151" t="s">
         <v>13</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
       </c>
       <c r="M151">
         <v>8.7337404222827661</v>
@@ -7234,7 +7294,7 @@
         <v>5</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G152" t="s">
         <v>13</v>
@@ -7272,7 +7332,7 @@
         <v>5</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G153" t="s">
         <v>13</v>
@@ -7310,7 +7370,7 @@
         <v>5</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G154" t="s">
         <v>13</v>
@@ -7348,10 +7408,13 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G155" t="s">
         <v>13</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
       </c>
       <c r="M155" s="4">
         <v>9.3081440790995309</v>
@@ -7386,10 +7449,13 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G156" t="s">
         <v>13</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
       </c>
       <c r="M156" s="4">
         <v>8.7862355388566158</v>
@@ -7424,10 +7490,13 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G157" t="s">
         <v>13</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
       </c>
       <c r="M157">
         <v>10.209180062189082</v>
@@ -7462,10 +7531,13 @@
         <v>2</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G158" t="s">
         <v>13</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
       </c>
       <c r="M158" s="4">
         <v>8.8030548419859969</v>
@@ -7500,10 +7572,13 @@
         <v>2</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G159" t="s">
         <v>13</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
       </c>
       <c r="M159" s="4">
         <v>8.8993614429622152</v>
@@ -7538,10 +7613,13 @@
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G160" t="s">
         <v>13</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
       </c>
       <c r="M160" s="4">
         <v>8.814553872777136</v>
@@ -7576,10 +7654,13 @@
         <v>0.5</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G161" t="s">
         <v>13</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
       </c>
       <c r="M161" s="4">
         <v>4.7806058967218802E-3</v>
@@ -7614,10 +7695,13 @@
         <v>0.5</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G162" t="s">
         <v>13</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
       </c>
       <c r="M162" s="4">
         <v>27.755006701119527</v>
@@ -7709,10 +7793,13 @@
         <v>0.5</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G166" t="s">
         <v>13</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
       </c>
       <c r="M166">
         <v>6.8869171397029846E-2</v>
@@ -7747,10 +7834,13 @@
         <v>0.5</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G167" t="s">
         <v>13</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
       </c>
       <c r="M167" s="4">
         <v>27.653408638810049</v>
@@ -7808,10 +7898,13 @@
         <v>0.5</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G169" t="s">
         <v>13</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
       </c>
       <c r="M169" s="4">
         <v>3.7769143092369402E-2</v>
@@ -7846,10 +7939,13 @@
         <v>0.5</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G170" t="s">
         <v>13</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
       </c>
       <c r="M170" s="4">
         <v>27.780950182833315</v>
@@ -7884,10 +7980,13 @@
         <v>0.5</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G171" t="s">
         <v>13</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
       </c>
       <c r="M171">
         <v>8.7392517334531039</v>
@@ -7922,10 +8021,13 @@
         <v>0.5</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G172" t="s">
         <v>13</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
       </c>
       <c r="M172">
         <v>8.7523263793749546</v>
@@ -7960,10 +8062,13 @@
         <v>0.5</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G173" t="s">
         <v>13</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
       </c>
       <c r="M173" s="4">
         <v>8.7748011673812254</v>
@@ -7998,7 +8103,7 @@
         <v>5</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G174" t="s">
         <v>13</v>
@@ -8036,10 +8141,13 @@
         <v>5</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G175" t="s">
         <v>13</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
       </c>
       <c r="M175">
         <v>8.5109375274318317</v>
@@ -8074,7 +8182,7 @@
         <v>5</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G176" t="s">
         <v>13</v>
@@ -8112,7 +8220,7 @@
         <v>0.5</v>
       </c>
       <c r="F177" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G177" t="s">
         <v>13</v>
@@ -8153,10 +8261,13 @@
         <v>0.5</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G178" t="s">
         <v>13</v>
+      </c>
+      <c r="J178">
+        <v>2.6100000000000012E-3</v>
       </c>
       <c r="M178" s="4">
         <v>27.356459894892303</v>
@@ -8217,7 +8328,7 @@
         <v>5</v>
       </c>
       <c r="F180" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G180" t="s">
         <v>13</v>
@@ -8258,7 +8369,7 @@
         <v>5</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G181" t="s">
         <v>13</v>
@@ -8299,7 +8410,7 @@
         <v>5</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G182" t="s">
         <v>13</v>
@@ -8337,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G183" t="s">
         <v>13</v>
@@ -8375,10 +8486,13 @@
         <v>0.5</v>
       </c>
       <c r="F184" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G184" t="s">
         <v>13</v>
+      </c>
+      <c r="J184">
+        <v>2.6399999999999757E-3</v>
       </c>
       <c r="M184">
         <v>8.7618513957676978</v>
@@ -8413,10 +8527,13 @@
         <v>0.5</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G185" t="s">
         <v>13</v>
+      </c>
+      <c r="J185">
+        <v>2.6199999999998447E-3</v>
       </c>
       <c r="M185">
         <v>8.7523298513095131</v>
@@ -8451,10 +8568,13 @@
         <v>0.5</v>
       </c>
       <c r="F186" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G186" t="s">
         <v>13</v>
+      </c>
+      <c r="J186">
+        <v>2.6199999999998447E-3</v>
       </c>
       <c r="M186" s="4">
         <v>8.7644372409179656</v>
@@ -8489,10 +8609,13 @@
         <v>0.5</v>
       </c>
       <c r="F187" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G187" t="s">
         <v>13</v>
+      </c>
+      <c r="J187">
+        <v>2.6199999999998447E-3</v>
       </c>
       <c r="M187" s="4">
         <v>3.243142809617721E-2</v>
@@ -8553,7 +8676,7 @@
         <v>0.5</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G189" t="s">
         <v>13</v>
@@ -8591,7 +8714,7 @@
         <v>0.5</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G190" t="s">
         <v>13</v>
@@ -8652,7 +8775,7 @@
         <v>0.5</v>
       </c>
       <c r="F192" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G192" t="s">
         <v>13</v>
@@ -8690,7 +8813,7 @@
         <v>0.5</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G193" t="s">
         <v>13</v>
@@ -8728,7 +8851,7 @@
         <v>0.5</v>
       </c>
       <c r="F194" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G194" t="s">
         <v>13</v>
@@ -8766,7 +8889,7 @@
         <v>0.5</v>
       </c>
       <c r="F195" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G195" t="s">
         <v>13</v>
@@ -8804,7 +8927,7 @@
         <v>5</v>
       </c>
       <c r="F196" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G196" t="s">
         <v>13</v>
@@ -8842,7 +8965,7 @@
         <v>5</v>
       </c>
       <c r="F197" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G197" t="s">
         <v>13</v>
@@ -8880,7 +9003,7 @@
         <v>5</v>
       </c>
       <c r="F198" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G198" t="s">
         <v>13</v>
@@ -8918,10 +9041,13 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G199" t="s">
         <v>13</v>
+      </c>
+      <c r="J199">
+        <v>2.6299999999999102E-3</v>
       </c>
       <c r="M199" s="4">
         <v>8.5658811992354487</v>
@@ -8956,10 +9082,13 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G200" t="s">
         <v>13</v>
+      </c>
+      <c r="J200">
+        <v>2.6199999999999557E-3</v>
       </c>
       <c r="M200" s="4">
         <v>8.6816785283247544</v>
@@ -8994,10 +9123,13 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G201" t="s">
         <v>13</v>
+      </c>
+      <c r="J201">
+        <v>2.6499999999998192E-3</v>
       </c>
       <c r="M201">
         <v>10.502390196349445</v>
@@ -9032,10 +9164,13 @@
         <v>2</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G202" t="s">
         <v>13</v>
+      </c>
+      <c r="J202">
+        <v>2.7099999999999902E-3</v>
       </c>
       <c r="M202" s="4">
         <v>8.8860472447723691</v>
@@ -9070,10 +9205,13 @@
         <v>2</v>
       </c>
       <c r="F203" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G203" t="s">
         <v>13</v>
+      </c>
+      <c r="J203">
+        <v>2.6299999999999102E-3</v>
       </c>
       <c r="M203">
         <v>8.9475499605566977</v>
@@ -9108,7 +9246,7 @@
         <v>0.5</v>
       </c>
       <c r="F204" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G204" t="s">
         <v>13</v>
@@ -9149,7 +9287,7 @@
         <v>0.5</v>
       </c>
       <c r="F205" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G205" t="s">
         <v>13</v>
@@ -9213,7 +9351,7 @@
         <v>0.5</v>
       </c>
       <c r="F207" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G207" t="s">
         <v>13</v>
@@ -9251,7 +9389,7 @@
         <v>0.5</v>
       </c>
       <c r="F208" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G208" t="s">
         <v>13</v>
@@ -9292,7 +9430,7 @@
         <v>0.5</v>
       </c>
       <c r="F209" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G209" t="s">
         <v>13</v>
@@ -9333,7 +9471,7 @@
         <v>2</v>
       </c>
       <c r="F210" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G210" t="s">
         <v>13</v>
@@ -9374,7 +9512,7 @@
         <v>2</v>
       </c>
       <c r="F211" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G211" t="s">
         <v>13</v>
@@ -9415,7 +9553,7 @@
         <v>2</v>
       </c>
       <c r="F212" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G212" t="s">
         <v>13</v>
@@ -9456,7 +9594,7 @@
         <v>5</v>
       </c>
       <c r="F213" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G213" t="s">
         <v>13</v>
@@ -9497,7 +9635,7 @@
         <v>5</v>
       </c>
       <c r="F214" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G214" t="s">
         <v>13</v>
@@ -9538,10 +9676,13 @@
         <v>5</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G215" t="s">
         <v>13</v>
+      </c>
+      <c r="J215">
+        <v>2.6699999999997281E-3</v>
       </c>
       <c r="M215" s="4">
         <v>9.5344936437323593</v>
@@ -9576,7 +9717,7 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G216" t="s">
         <v>13</v>
@@ -9617,10 +9758,13 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G217" t="s">
         <v>13</v>
+      </c>
+      <c r="J217">
+        <v>2.6599999999998847E-3</v>
       </c>
       <c r="M217" s="4">
         <v>10.240452197657543</v>
@@ -9655,7 +9799,7 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G218" t="s">
         <v>13</v>
@@ -9690,7 +9834,7 @@
         <v>709</v>
       </c>
       <c r="D219" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F219" t="s">
         <v>13</v>
@@ -10035,7 +10179,7 @@
         <v>0.5</v>
       </c>
       <c r="F234" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G234" t="s">
         <v>13</v>
@@ -10073,7 +10217,7 @@
         <v>0.5</v>
       </c>
       <c r="F235" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G235" t="s">
         <v>13</v>
@@ -10258,7 +10402,7 @@
         <v>0.5</v>
       </c>
       <c r="F242" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G242" t="s">
         <v>13</v>
@@ -10299,7 +10443,7 @@
         <v>0.5</v>
       </c>
       <c r="F243" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G243" t="s">
         <v>13</v>
@@ -10366,7 +10510,7 @@
         <v>5</v>
       </c>
       <c r="F245" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G245" t="s">
         <v>13</v>
@@ -10407,7 +10551,7 @@
         <v>5</v>
       </c>
       <c r="F246" t="s">
-        <v>13</v>
+        <v>997</v>
       </c>
       <c r="G246" t="s">
         <v>13</v>
@@ -10448,7 +10592,7 @@
         <v>5</v>
       </c>
       <c r="F247" t="s">
-        <v>13</v>
+        <v>998</v>
       </c>
       <c r="G247" t="s">
         <v>13</v>
@@ -10489,7 +10633,7 @@
         <v>0.5</v>
       </c>
       <c r="F248" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="G248" t="s">
         <v>13</v>
@@ -10547,7 +10691,7 @@
         <v>0.5</v>
       </c>
       <c r="F250" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G250" t="s">
         <v>13</v>
@@ -10582,10 +10726,10 @@
         <v>622</v>
       </c>
       <c r="D251" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F251" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G251" t="s">
         <v>13</v>
@@ -10602,10 +10746,10 @@
         <v>622</v>
       </c>
       <c r="D252" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F252" t="s">
-        <v>13</v>
+        <v>995</v>
       </c>
       <c r="G252" t="s">
         <v>13</v>
@@ -10622,10 +10766,10 @@
         <v>622</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>13</v>
+        <v>992</v>
       </c>
       <c r="F253" t="s">
-        <v>13</v>
+        <v>996</v>
       </c>
       <c r="G253" t="s">
         <v>13</v>
@@ -10642,7 +10786,7 @@
         <v>622</v>
       </c>
       <c r="D254" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F254" t="s">
         <v>13</v>
@@ -10668,7 +10812,7 @@
         <v>622</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>13</v>
+        <v>993</v>
       </c>
       <c r="F255" t="s">
         <v>13</v>
@@ -13624,6 +13768,9 @@
       <c r="G376" t="s">
         <v>13</v>
       </c>
+      <c r="J376">
+        <v>2.6699999999997281E-3</v>
+      </c>
       <c r="M376">
         <v>10.867641661184257</v>
       </c>
@@ -13661,6 +13808,9 @@
       </c>
       <c r="G377" t="s">
         <v>13</v>
+      </c>
+      <c r="J377">
+        <v>2.6399999999999757E-3</v>
       </c>
       <c r="M377">
         <v>10.860134893258568</v>
@@ -19478,6 +19628,9 @@
       <c r="G552" t="s">
         <v>13</v>
       </c>
+      <c r="J552">
+        <v>2.5899999999998702E-3</v>
+      </c>
       <c r="M552" s="4">
         <v>8.9157063294695238</v>
       </c>
@@ -19515,6 +19668,9 @@
       </c>
       <c r="G553" t="s">
         <v>13</v>
+      </c>
+      <c r="J553">
+        <v>2.6199999999999557E-3</v>
       </c>
       <c r="M553" s="4">
         <v>8.9220028263598046</v>

--- a/Projects/Max - CF Project/Monkey Metadata by Max.xlsx
+++ b/Projects/Max - CF Project/Monkey Metadata by Max.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\RaymondLabCode\Projects\Max - CF Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB4E816-93B1-4DE0-9941-59CD46DE44C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36450" yWindow="3690" windowWidth="7710" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36450" yWindow="3690" windowWidth="7710" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3031,7 +3030,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3408,7 +3407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R604"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -21530,7 +21529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
